--- a/real_robot_data_plots_and_demos/comparison_experiments/comparison_data_summary_spreadsheet_w_charts.xlsx
+++ b/real_robot_data_plots_and_demos/comparison_experiments/comparison_data_summary_spreadsheet_w_charts.xlsx
@@ -8,55 +8,48 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janak\Documents\GitHub\closed_chain_affordance\real_robot_data_plots_and_demos\comparison_experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7905B9-6074-42D1-905C-98888070D135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31482B63-DB11-46C8-AE16-56D58FFAC28A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="data_summary" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet2!$G$13:$G$17</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet2!$G$1:$G$2</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet2!$G$1:$G$2</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet2!$G$3:$G$7</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet2!$H$1:$H$2</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet2!$H$3:$H$7</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet2!$I$1:$I$2</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet2!$I$3:$I$7</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">(Sheet2!$D$4,Sheet2!$D$9:$D$10,Sheet2!$D$12,Sheet2!$D$15:$D$17)</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">(Sheet2!$E$4,Sheet2!$E$9:$E$10,Sheet2!$E$12,Sheet2!$E$15:$E$17)</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">(Sheet2!$F$4,Sheet2!$F$9:$F$10,Sheet2!$F$12,Sheet2!$F$15:$F$17)</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet2!$D$1:$D$2</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet2!$H$13:$H$17</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet2!$E$1:$E$2</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet2!$F$1:$F$2</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet2!$G$1:$G$2</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sheet2!$G$8:$G$12</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Sheet2!$H$1:$H$2</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Sheet2!$H$8:$H$12</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Sheet2!$I$1:$I$2</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Sheet2!$I$8:$I$12</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Sheet2!$G$13:$G$17</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Sheet2!$G$1:$G$2</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet2!$H$1:$H$2</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Sheet2!$H$13:$H$17</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Sheet2!$H$1:$H$2</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">Sheet2!$I$13:$I$17</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">Sheet2!$I$1:$I$2</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">(Sheet2!$O$4,Sheet2!$O$9:$O$10,Sheet2!$O$12,Sheet2!$O$15:$O$17)</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">(Sheet2!$P$4,Sheet2!$P$9:$P$10,Sheet2!$P$12,Sheet2!$P$15:$P$17)</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">(Sheet2!$Q$4,Sheet2!$Q$9:$Q$10,Sheet2!$Q$12,Sheet2!$Q$15:$Q$17)</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">Sheet2!$O$1:$O$2</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">Sheet2!$P$1:$P$2</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">Sheet2!$Q$1:$Q$2</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet2!$I$13:$I$17</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet2!$I$1:$I$2</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet2!$D$1:$D$2</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet2!$D$3:$D$17</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet2!$F$1:$F$2</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet2!$F$3:$F$17</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">data_summary!$G$1:$G$2</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">data_summary!$G$8:$G$12</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">data_summary!$I$1:$I$2</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">data_summary!$I$3:$I$7</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">data_summary!$G$13:$G$17</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">data_summary!$G$1:$G$2</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">data_summary!$H$13:$H$17</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">data_summary!$H$1:$H$2</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">data_summary!$I$13:$I$17</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">data_summary!$I$1:$I$2</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">data_summary!$D$1:$D$2</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">data_summary!$D$3:$D$17</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">data_summary!$H$1:$H$2</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">data_summary!$F$1:$F$2</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">data_summary!$F$3:$F$17</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">(data_summary!$O$4,data_summary!$O$9:$O$10,data_summary!$O$12,data_summary!$O$15:$O$17)</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">(data_summary!$P$4,data_summary!$P$9:$P$10,data_summary!$P$12,data_summary!$P$15:$P$17)</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">(data_summary!$Q$4,data_summary!$Q$9:$Q$10,data_summary!$Q$12,data_summary!$Q$15:$Q$17)</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">data_summary!$O$1:$O$2</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">data_summary!$P$1:$P$2</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">data_summary!$Q$1:$Q$2</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">(data_summary!$D$4,data_summary!$D$9:$D$10,data_summary!$D$12,data_summary!$D$15:$D$17)</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">(data_summary!$E$4,data_summary!$E$9:$E$10,data_summary!$E$12,data_summary!$E$15:$E$17)</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">data_summary!$H$8:$H$12</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">(data_summary!$F$4,data_summary!$F$9:$F$10,data_summary!$F$12,data_summary!$F$15:$F$17)</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">data_summary!$D$1:$D$2</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">data_summary!$E$1:$E$2</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">data_summary!$F$1:$F$2</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">data_summary!$I$1:$I$2</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">data_summary!$I$8:$I$12</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">data_summary!$G$1:$G$2</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">data_summary!$G$3:$G$7</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">data_summary!$H$1:$H$2</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">data_summary!$H$3:$H$7</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -79,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>Affordance Type</t>
   </si>
@@ -90,34 +83,7 @@
     <t>Affordance Goal</t>
   </si>
   <si>
-    <t>Planner</t>
-  </si>
-  <si>
-    <t>Joint Distance(rad)</t>
-  </si>
-  <si>
-    <t>Max Affordance Goal(rad or m)</t>
-  </si>
-  <si>
-    <t>Average Joint Distance</t>
-  </si>
-  <si>
-    <t>Average max goal</t>
-  </si>
-  <si>
     <t>Planning Time(us)</t>
-  </si>
-  <si>
-    <t>Average Planning Time(s) for SPS Succeeding cases</t>
-  </si>
-  <si>
-    <t>SPS Failure</t>
-  </si>
-  <si>
-    <t>CCA traj larger than DSS</t>
-  </si>
-  <si>
-    <t>Diff between DSS and SPS joint distance for cases where SPS succeeds</t>
   </si>
   <si>
     <t>Rotation</t>
@@ -145,54 +111,6 @@
   </si>
   <si>
     <t>Nut (Un)fastening</t>
-  </si>
-  <si>
-    <t>SPS Failure rate</t>
-  </si>
-  <si>
-    <t>DSS Joint Distance Sum</t>
-  </si>
-  <si>
-    <t>Max diff between DSS and SPS JS</t>
-  </si>
-  <si>
-    <t>CCA Joint Distance Sum</t>
-  </si>
-  <si>
-    <t>CCA longer traj</t>
-  </si>
-  <si>
-    <t>CCA speed over SPS</t>
-  </si>
-  <si>
-    <t>CCA speed over DSS</t>
-  </si>
-  <si>
-    <t>DSS Joint Distance</t>
-  </si>
-  <si>
-    <t>DSS Max Affordance Goal(rad or m)</t>
-  </si>
-  <si>
-    <t>DSS Planning Time (us)</t>
-  </si>
-  <si>
-    <t>SPS J Dist</t>
-  </si>
-  <si>
-    <t>SPS Max Aff</t>
-  </si>
-  <si>
-    <t>SPS Planning Time</t>
-  </si>
-  <si>
-    <t>CCA J Dist</t>
-  </si>
-  <si>
-    <t>CCA Max Aff</t>
-  </si>
-  <si>
-    <t>CCA Planning Time</t>
   </si>
   <si>
     <t>Joint Distance</t>
@@ -275,53 +193,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -355,2173 +236,17 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="3600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Joint Distance, Max Affordance Goal, and Planning Time for Comparison Experiments</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="3600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="92D050"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-E3A9-4642-8C66-6574031D8AB9}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00B0F0"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000008-E3A9-4642-8C66-6574031D8AB9}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFC000"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-BB21-410F-B10C-5D643AEE1B94}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="92D050"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-E259-4574-9A42-30675FB8960C}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00B0F0"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-E3A9-4642-8C66-6574031D8AB9}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="7"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFC000"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-2BC6-4D1E-BBBD-8556A8A2230D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="10"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="92D050"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-602D-4BBB-8A98-FEC729AD8CD1}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="11"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00B0F0"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000F-2BC6-4D1E-BBBD-8556A8A2230D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="12"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFC000"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-E3A9-4642-8C66-6574031D8AB9}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="15"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="92D050"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000013-2BC6-4D1E-BBBD-8556A8A2230D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="16"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00B0F0"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000019-E259-4574-9A42-30675FB8960C}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="17"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFC000"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001B-E259-4574-9A42-30675FB8960C}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="20"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="92D050"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000019-2BC6-4D1E-BBBD-8556A8A2230D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="21"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00B0F0"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001B-2BC6-4D1E-BBBD-8556A8A2230D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="22"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFC000"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001D-2BC6-4D1E-BBBD-8556A8A2230D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="26"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="92D050"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001F-DD24-474D-8B5E-AED8A159388D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="28"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFC000"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000003F-E259-4574-9A42-30675FB8960C}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="31"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="92D050"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000023-DD24-474D-8B5E-AED8A159388D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="32"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00B0F0"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000025-DD24-474D-8B5E-AED8A159388D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="33"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFC000"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002B-F8B9-4966-AD74-2A104305D1A3}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="36"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="92D050"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000029-DD24-474D-8B5E-AED8A159388D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="37"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00B0F0"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002B-DD24-474D-8B5E-AED8A159388D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="38"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFC000"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000004B-E259-4574-9A42-30675FB8960C}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="41"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="92D050"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002F-DD24-474D-8B5E-AED8A159388D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="43"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFC000"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002F-2BC6-4D1E-BBBD-8556A8A2230D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="46"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="92D050"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000033-DD24-474D-8B5E-AED8A159388D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="47"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00B0F0"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000035-DD24-474D-8B5E-AED8A159388D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="48"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFC000"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000033-2BC6-4D1E-BBBD-8556A8A2230D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>(Sheet1!$E$5:$E$80,Sheet1!$F$5:$F$80)</c:f>
-              <c:strCache>
-                <c:ptCount val="149"/>
-                <c:pt idx="0">
-                  <c:v>Pelican Case Opening</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>Dufflebag Unzipping</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>Nut (Un)fastening</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>0.30</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>0.30</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>0.30</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>0.20</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>60</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$H$5:$H$80</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="76"/>
-                <c:pt idx="0">
-                  <c:v>2.83846</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.44215</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0477700000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.7043900000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.7021999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.3629100000000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.9019400000000002</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.83582</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.43967</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.4413899999999999</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.15516</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.80431799999999998</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.29182</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.6437299999999999</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.2106699999999999</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.8505099999999999</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.33453500000000003</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2.1236600000000001</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2.0815199999999998</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.67907600000000001</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1.6878200000000001</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1.6475599999999999</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1.0077499999999999</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>4.0281799999999999</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1.4646399999999999</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1.0765499999999999</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1.04</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.72172599999999998</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>3.43797</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1.07019</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.953152</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>3.3031999999999999</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.95394699999999999</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.97177899999999995</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.97539200000000004</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.99530399999999997</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.80662999999999996</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.82251300000000005</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.98334500000000002</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1.0878399999999999</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1.09941</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1.31254</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E3A9-4642-8C66-6574031D8AB9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="0"/>
-        <c:axId val="1596305927"/>
-        <c:axId val="1596307975"/>
-      </c:barChart>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="92D050"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-BB21-410F-B10C-5D643AEE1B94}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00B0F0"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-BB21-410F-B10C-5D643AEE1B94}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFC000"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000006-BB21-410F-B10C-5D643AEE1B94}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="92D050"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000E-BB21-410F-B10C-5D643AEE1B94}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00B0F0"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-BB21-410F-B10C-5D643AEE1B94}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="7"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFC000"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000043-2BC6-4D1E-BBBD-8556A8A2230D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="10"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="92D050"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000008-BB21-410F-B10C-5D643AEE1B94}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="11"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00B0F0"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000047-2BC6-4D1E-BBBD-8556A8A2230D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="12"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFC000"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-BB21-410F-B10C-5D643AEE1B94}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="15"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="92D050"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000004B-2BC6-4D1E-BBBD-8556A8A2230D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="16"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00B0F0"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-BB21-410F-B10C-5D643AEE1B94}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="17"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFC000"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000011-BB21-410F-B10C-5D643AEE1B94}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="20"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="92D050"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000051-2BC6-4D1E-BBBD-8556A8A2230D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="21"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00B0F0"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000053-2BC6-4D1E-BBBD-8556A8A2230D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="22"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFC000"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000055-2BC6-4D1E-BBBD-8556A8A2230D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="26"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="92D050"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000057-DD24-474D-8B5E-AED8A159388D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="28"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFC000"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000044-E259-4574-9A42-30675FB8960C}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="31"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="92D050"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000005B-DD24-474D-8B5E-AED8A159388D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="32"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00B0F0"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000005D-DD24-474D-8B5E-AED8A159388D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="33"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFC000"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000063-F8B9-4966-AD74-2A104305D1A3}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="36"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="92D050"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000061-DD24-474D-8B5E-AED8A159388D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="37"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00B0F0"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000063-DD24-474D-8B5E-AED8A159388D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="38"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFC000"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000050-E259-4574-9A42-30675FB8960C}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="41"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="92D050"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000067-DD24-474D-8B5E-AED8A159388D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="43"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFC000"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000067-2BC6-4D1E-BBBD-8556A8A2230D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="46"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="92D050"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000006B-DD24-474D-8B5E-AED8A159388D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="47"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00B0F0"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000006D-DD24-474D-8B5E-AED8A159388D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="48"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFC000"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000006B-2BC6-4D1E-BBBD-8556A8A2230D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>(Sheet1!$E$5:$E$80,Sheet1!$F$5:$F$80)</c:f>
-              <c:strCache>
-                <c:ptCount val="149"/>
-                <c:pt idx="0">
-                  <c:v>Pelican Case Opening</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>Dufflebag Unzipping</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>Nut (Un)fastening</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>0.30</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>0.30</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>0.30</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>0.20</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>60</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$I$5:$I$80</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="76"/>
-                <c:pt idx="0">
-                  <c:v>0.62831899999999996</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.508938</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.3926890000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.78539800000000004</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.83252199999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.5707963267948966</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.837758</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.75398200000000004</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.53</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.448799</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.42187000000000002</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.1520379999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.69813199999999997</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.64926300000000003</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.2183189999999999</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.23</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.36</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.43890699999999999</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.43889699999999998</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.78</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.27500000000000002</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.32</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.78539800000000004</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.62831800000000004</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>2.6428880000000001</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.78539800000000004</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>6.2831853071795862</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.78539800000000004</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>2.6389399999999998</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>6.2831853071795862</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.78539800000000004</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.94247800000000004</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1.2456320000000001</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1.0471999999999999</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1.3194699999999999</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1.8612759999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-602D-4BBB-8A98-FEC729AD8CD1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="0"/>
-        <c:axId val="1149653000"/>
-        <c:axId val="1149645832"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1596305927"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="t"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1596307975"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1596307975"/>
-        <c:scaling>
-          <c:orientation val="maxMin"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="3600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Joint distance, rad</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="3600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1596305927"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1149645832"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1.8"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="3600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Maximum Affordance Goal (rad or m)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="3600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1149653000"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:catAx>
-        <c:axId val="1149653000"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="3600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Task Description</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="3600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="3600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1149645832"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.19</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.21</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2562,7 +287,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{0382D671-78FD-499B-9B8E-2C80B1D2CC9E}" formatIdx="0">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.18</cx:f>
               <cx:v>Joint Distance DSS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2636,7 +361,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{21FE5B4C-0176-4646-877C-B1499D99DF0C}" formatIdx="1">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:f>_xlchart.v1.20</cx:f>
               <cx:v>CCA</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2815,17 +540,17 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.11</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.13</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.15</cx:f>
+        <cx:f>_xlchart.v1.11</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2866,7 +591,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{EC1BFEB9-51E1-47A8-BE3D-4EFFC9C8B70A}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.10</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>Max Affordance DSS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2956,7 +681,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{6D08D468-86D3-41E8-9BEC-278660B9132B}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.12</cx:f>
+              <cx:f>_xlchart.v1.8</cx:f>
               <cx:v>SPS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2980,7 +705,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{327D4D88-173A-4F3A-8AD4-8854575B46C1}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.14</cx:f>
+              <cx:f>_xlchart.v1.10</cx:f>
               <cx:v>CCA</cx:v>
             </cx:txData>
           </cx:tx>
@@ -3114,17 +839,17 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.23</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.25</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.27</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3165,7 +890,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{B19A63EC-BAB7-4A72-B18D-571D74514894}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.22</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>Max Affordance DSS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -3237,7 +962,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{B712CB83-935D-41BD-A894-992E04E28509}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.24</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>SPS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -3310,7 +1035,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{0DD982F6-513D-43A8-A1E7-2BDA03100B84}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.26</cx:f>
+              <cx:f>_xlchart.v1.4</cx:f>
               <cx:v>CCA</cx:v>
             </cx:txData>
           </cx:tx>
@@ -3492,17 +1217,17 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.28</cx:f>
+        <cx:f>_xlchart.v1.12</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.30</cx:f>
+        <cx:f>_xlchart.v1.14</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.32</cx:f>
+        <cx:f>_xlchart.v1.16</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3543,7 +1268,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{97FBFBD7-1F03-445F-A4D8-F2680E21D10A}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.29</cx:f>
+              <cx:f>_xlchart.v1.13</cx:f>
               <cx:v>Max Affordance DSS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -3630,7 +1355,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{6067C55C-6B6F-4F4C-9BA9-5BAA6BBFAACF}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.31</cx:f>
+              <cx:f>_xlchart.v1.15</cx:f>
               <cx:v>SPS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -3703,7 +1428,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C75F04B9-C3D8-46D8-B136-BE996120F14C}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.33</cx:f>
+              <cx:f>_xlchart.v1.17</cx:f>
               <cx:v>CCA</cx:v>
             </cx:txData>
           </cx:tx>
@@ -3901,17 +1626,17 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.34</cx:f>
+        <cx:f>_xlchart.v1.22</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.35</cx:f>
+        <cx:f>_xlchart.v1.23</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.36</cx:f>
+        <cx:f>_xlchart.v1.24</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3952,7 +1677,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{D8E0D4C5-9E37-468F-AE6B-783E640DA5DB}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.37</cx:f>
+              <cx:f>_xlchart.v1.25</cx:f>
               <cx:v>Planning Time(s) DSS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -4034,7 +1759,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{9F016F99-8005-491B-AC8B-77E8067B3D4D}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.38</cx:f>
+              <cx:f>_xlchart.v1.26</cx:f>
               <cx:v>SPS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -4113,7 +1838,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C152E4A2-BA39-4218-B43E-D0DC6449AC31}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.39</cx:f>
+              <cx:f>_xlchart.v1.27</cx:f>
               <cx:v>CCA</cx:v>
             </cx:txData>
           </cx:tx>
@@ -4314,17 +2039,17 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.16</cx:f>
+        <cx:f>_xlchart.v1.28</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.17</cx:f>
+        <cx:f>_xlchart.v1.29</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.18</cx:f>
+        <cx:f>_xlchart.v1.30</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4365,7 +2090,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{D6AC1890-DB70-42A1-A652-CF422DBA3013}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.19</cx:f>
+              <cx:f>_xlchart.v1.31</cx:f>
               <cx:v>Joint Distance DSS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -4453,7 +2178,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{3CA3C64A-B5BF-4FB8-AD0B-6D0879431690}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.20</cx:f>
+              <cx:f>_xlchart.v1.32</cx:f>
               <cx:v>SPS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -4544,7 +2269,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{E14A7B52-1B85-4DE5-9C17-19C6D97E0B00}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.21</cx:f>
+              <cx:f>_xlchart.v1.33</cx:f>
               <cx:v>CCA</cx:v>
             </cx:txData>
           </cx:tx>
@@ -4957,550 +2682,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6015,7 +3197,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6530,7 +3712,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7045,7 +4227,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7560,7 +4742,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8075,7 +5257,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8591,47 +5773,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>64</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E81C6B48-D72C-6AD1-E5DA-D957CD0E49B4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8680,8 +5821,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6363566" y="4381500"/>
-              <a:ext cx="4544291" cy="2743200"/>
+              <a:off x="6351443" y="4381500"/>
+              <a:ext cx="4563341" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -8762,7 +5903,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="1643743" y="7519307"/>
-              <a:ext cx="4591050" cy="2743200"/>
+              <a:ext cx="4580164" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -8842,8 +5983,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6328683" y="7550603"/>
-              <a:ext cx="5034643" cy="2743200"/>
+              <a:off x="6317797" y="7550603"/>
+              <a:ext cx="5030561" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -8923,8 +6064,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="11378911" y="7530811"/>
-              <a:ext cx="4547755" cy="2743200"/>
+              <a:off x="11393631" y="7530811"/>
+              <a:ext cx="4559878" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -9765,3090 +6906,1039 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D3:P132"/>
-  <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="K132" sqref="K132"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.140625" style="5" customWidth="1"/>
-    <col min="12" max="12" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.42578125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="28.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="28.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="63.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="N3" s="1">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="4" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="8">
-        <f>0.628319*180/PI()</f>
-        <v>36.000026887880374</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="1">
-        <v>2.83846</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0.62831899999999996</v>
-      </c>
-      <c r="J5" s="5">
-        <f t="shared" ref="J5:K7" si="0">AVERAGE(H5,H10,H15,H20,H25)</f>
-        <v>2.4356</v>
-      </c>
-      <c r="K5" s="5">
-        <f t="shared" si="0"/>
-        <v>0.6796812000000001</v>
-      </c>
-      <c r="L5" s="2">
-        <v>157034</v>
-      </c>
-      <c r="M5" s="2">
-        <f>L10/1000000</f>
-        <v>0.11727</v>
-      </c>
-      <c r="N5" s="1">
-        <f>IF(I6&lt;N$3*I5, 1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="O5" s="1">
-        <f>IF(H7&gt;H5,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D6" s="3"/>
-      <c r="G6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1.44215</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0.508938</v>
-      </c>
-      <c r="J6" s="5">
-        <f t="shared" si="0"/>
-        <v>1.555812</v>
-      </c>
-      <c r="K6" s="5">
-        <f t="shared" si="0"/>
-        <v>0.63331500000000007</v>
-      </c>
-      <c r="L6" s="2">
-        <v>51849</v>
-      </c>
-      <c r="M6" s="2">
-        <f t="shared" ref="M6:M7" si="1">L11/1000000</f>
-        <v>4.9279999999999997E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="G7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="1">
-        <v>1.0477700000000001</v>
-      </c>
-      <c r="I7" s="1">
-        <v>1.3926890000000001</v>
-      </c>
-      <c r="J7" s="5">
-        <f t="shared" si="0"/>
-        <v>1.1730676</v>
-      </c>
-      <c r="K7" s="5">
-        <f t="shared" si="0"/>
-        <v>1.3727684653589793</v>
-      </c>
-      <c r="L7" s="2">
-        <v>4788</v>
-      </c>
-      <c r="M7" s="2">
-        <f t="shared" si="1"/>
-        <v>5.1440000000000001E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="9"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-    </row>
-    <row r="9" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="10"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-    </row>
-    <row r="10" spans="4:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13">
-        <f>0.785398*180/PI()</f>
-        <v>44.999990638015838</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="11">
-        <v>1.7043900000000001</v>
-      </c>
-      <c r="I10" s="11">
-        <v>0.78539800000000004</v>
-      </c>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="15">
-        <v>117270</v>
-      </c>
-      <c r="M10" s="2"/>
-      <c r="N10" s="11">
-        <f>IF(I11&lt;N$3*I10, 1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O10" s="11">
-        <f>IF(H12&gt;H10,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P10" s="11">
-        <f>ABS(H11-H10)</f>
-        <v>2.1900000000001363E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="1">
-        <v>1.7021999999999999</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0.83252199999999998</v>
-      </c>
-      <c r="L11" s="2">
-        <v>49280</v>
-      </c>
-      <c r="M11" s="2"/>
-    </row>
-    <row r="12" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="1">
-        <v>1.3629100000000001</v>
-      </c>
-      <c r="I12" s="1">
-        <f>PI()/2</f>
-        <v>1.5707963267948966</v>
-      </c>
-      <c r="L12" s="1">
-        <v>5144</v>
-      </c>
-      <c r="M12" s="2"/>
-    </row>
-    <row r="13" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="8"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-    </row>
-    <row r="14" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="8"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-    </row>
-    <row r="15" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="8">
-        <f>0.837758*180/PI()</f>
-        <v>47.999997653320818</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="1">
-        <v>3.9019400000000002</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0.837758</v>
-      </c>
-      <c r="L15" s="2">
-        <v>156956</v>
-      </c>
-      <c r="M15" s="2"/>
-      <c r="N15" s="1">
-        <f>IF(I16&lt;N$3*I15, 1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="O15" s="1">
-        <f>IF(H17&gt;H15,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D16" s="3"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="1">
-        <v>1.83582</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0.75398200000000004</v>
-      </c>
-      <c r="L16" s="2">
-        <v>45038</v>
-      </c>
-      <c r="M16" s="2"/>
-    </row>
-    <row r="17" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="1">
-        <v>1.43967</v>
-      </c>
-      <c r="I17" s="1">
-        <v>1.53</v>
-      </c>
-      <c r="L17" s="1">
-        <v>5006</v>
-      </c>
-      <c r="M17" s="2"/>
-    </row>
-    <row r="18" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="8"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-    </row>
-    <row r="19" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="8"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-    </row>
-    <row r="20" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="8">
-        <f>0.448799*180/PI()</f>
-        <v>25.714288549691837</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="1">
-        <v>1.4413899999999999</v>
-      </c>
-      <c r="I20" s="1">
-        <v>0.448799</v>
-      </c>
-      <c r="L20" s="2">
-        <v>94078</v>
-      </c>
-      <c r="M20" s="2"/>
-      <c r="N20" s="1">
-        <f>IF(I21&lt;N$3*I20, 1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="O20" s="1">
-        <f>IF(H22&gt;H20,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="1">
-        <v>1.15516</v>
-      </c>
-      <c r="I21" s="1">
-        <v>0.42187000000000002</v>
-      </c>
-      <c r="L21" s="2">
-        <v>52616</v>
-      </c>
-      <c r="M21" s="2"/>
-    </row>
-    <row r="22" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" s="1">
-        <v>0.80431799999999998</v>
-      </c>
-      <c r="I22" s="1">
-        <v>1.1520379999999999</v>
-      </c>
-      <c r="L22" s="2">
-        <v>5620</v>
-      </c>
-      <c r="M22" s="2"/>
-    </row>
-    <row r="23" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="8"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-    </row>
-    <row r="24" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="8"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-    </row>
-    <row r="25" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="8">
-        <f>0.698132*180/PI()</f>
-        <v>40.000017143027186</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H25" s="1">
-        <v>2.29182</v>
-      </c>
-      <c r="I25" s="1">
-        <v>0.69813199999999997</v>
-      </c>
-      <c r="L25" s="2">
-        <v>157854</v>
-      </c>
-      <c r="M25" s="2"/>
-      <c r="N25" s="1">
-        <f>IF(I26&lt;N$3*I25, 1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="O25" s="1">
-        <f>IF(H27&gt;H25,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H26" s="1">
-        <v>1.6437299999999999</v>
-      </c>
-      <c r="I26" s="1">
-        <v>0.64926300000000003</v>
-      </c>
-      <c r="L26" s="2">
-        <v>64435</v>
-      </c>
-      <c r="M26" s="2"/>
-    </row>
-    <row r="27" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H27" s="1">
-        <v>1.2106699999999999</v>
-      </c>
-      <c r="I27" s="1">
-        <v>1.2183189999999999</v>
-      </c>
-      <c r="L27" s="1">
-        <v>5143</v>
-      </c>
-      <c r="M27" s="2"/>
-    </row>
-    <row r="28" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="7"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-    </row>
-    <row r="29" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="7"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-    </row>
-    <row r="30" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="7"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-    </row>
-    <row r="31" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D31" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F31" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H31" s="1">
-        <v>2.8505099999999999</v>
-      </c>
-      <c r="I31" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="J31" s="5">
-        <f>AVERAGE(H31,H36,H41,H46,H51)</f>
-        <v>2.3533439999999999</v>
-      </c>
-      <c r="K31" s="5">
-        <f>AVERAGE(I31,I36,I41,I46,I51)</f>
-        <v>0.25</v>
-      </c>
-      <c r="L31" s="1">
-        <v>187370</v>
-      </c>
-      <c r="M31" s="2">
-        <f>AVERAGE(L36+L41+L51)/1000000</f>
-        <v>0.256463</v>
-      </c>
-      <c r="N31" s="1">
-        <f>IF(I32&lt;N$3*I31, 1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="O31" s="1">
-        <f>IF(H33&gt;H31,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H32" s="1">
-        <v>0</v>
-      </c>
-      <c r="I32" s="1">
-        <v>0</v>
-      </c>
-      <c r="J32" s="5">
-        <f>SUM(H32,H37,H42,H47,H52)/3</f>
-        <v>1.5896933333333332</v>
-      </c>
-      <c r="K32" s="5">
-        <f>SUM(I32,I37,I42,I47,I52)/3</f>
-        <v>0.31166666666666665</v>
-      </c>
-      <c r="L32" s="1">
-        <v>0</v>
-      </c>
-      <c r="M32" s="2">
-        <f t="shared" ref="M32:M33" si="2">AVERAGE(L37+L42+L52)/1000000</f>
-        <v>0.12894800000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H33" s="1">
-        <v>0.33453500000000003</v>
-      </c>
-      <c r="I33" s="1">
-        <v>0.23</v>
-      </c>
-      <c r="J33" s="5">
-        <f t="shared" ref="J33:K33" si="3">AVERAGE(H33,H38,H43,H48,H53)</f>
-        <v>0.8415454</v>
-      </c>
-      <c r="K33" s="5">
-        <f t="shared" si="3"/>
-        <v>0.44156079999999998</v>
-      </c>
-      <c r="L33" s="1">
-        <v>9163</v>
-      </c>
-      <c r="M33" s="2">
-        <f t="shared" si="2"/>
-        <v>3.1843000000000003E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="7"/>
-      <c r="M34" s="2"/>
-    </row>
-    <row r="35" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="7"/>
-      <c r="M35" s="2"/>
-    </row>
-    <row r="36" spans="4:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="16">
-        <v>0.3</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H36" s="11">
-        <v>2.1236600000000001</v>
-      </c>
-      <c r="I36" s="11">
-        <v>0.3</v>
-      </c>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="11">
-        <v>130401</v>
-      </c>
-      <c r="M36" s="2"/>
-      <c r="N36" s="11">
-        <f>IF(I37&lt;N$3*I36, 1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O36" s="11">
-        <f>IF(H38&gt;H36,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P36" s="11">
-        <f t="shared" ref="P36:P67" si="4">ABS(H37-H36)</f>
-        <v>4.2140000000000288E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H37" s="1">
-        <v>2.0815199999999998</v>
-      </c>
-      <c r="I37" s="1">
-        <v>0.36</v>
-      </c>
-      <c r="L37" s="1">
-        <v>66481</v>
-      </c>
-      <c r="M37" s="2"/>
-    </row>
-    <row r="38" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H38" s="1">
-        <v>0.67907600000000001</v>
-      </c>
-      <c r="I38" s="1">
-        <v>0.43890699999999999</v>
-      </c>
-      <c r="L38" s="1">
-        <v>9341</v>
-      </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="7"/>
-      <c r="M39" s="2"/>
-    </row>
-    <row r="40" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="7"/>
-      <c r="M40" s="2"/>
-    </row>
-    <row r="41" spans="4:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="16">
-        <v>0.3</v>
-      </c>
-      <c r="G41" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H41" s="11">
-        <v>1.6878200000000001</v>
-      </c>
-      <c r="I41" s="11">
-        <v>0.3</v>
-      </c>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="11">
-        <v>87325</v>
-      </c>
-      <c r="M41" s="2"/>
-      <c r="N41" s="11">
-        <f>IF(I42&lt;N$3*I41, 1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O41" s="11">
-        <f>IF(H43&gt;H41,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P41" s="11">
-        <f t="shared" si="4"/>
-        <v>4.0260000000000185E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D42" s="3"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H42" s="1">
-        <v>1.6475599999999999</v>
-      </c>
-      <c r="I42" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="L42" s="1">
-        <v>45116</v>
-      </c>
-      <c r="M42" s="2"/>
-    </row>
-    <row r="43" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H43" s="1">
-        <v>1.0077499999999999</v>
-      </c>
-      <c r="I43" s="1">
-        <v>0.43889699999999998</v>
-      </c>
-      <c r="L43" s="1">
-        <v>7132</v>
-      </c>
-      <c r="M43" s="2"/>
-    </row>
-    <row r="44" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="7"/>
-      <c r="M44" s="2"/>
-    </row>
-    <row r="45" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="7"/>
-      <c r="M45" s="2"/>
-    </row>
-    <row r="46" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H46" s="1">
-        <v>4.0281799999999999</v>
-      </c>
-      <c r="I46" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="L46" s="1">
-        <v>197185</v>
-      </c>
-      <c r="M46" s="2"/>
-      <c r="N46" s="1">
-        <f>IF(I47&lt;N$3*I46, 1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="O46" s="1">
-        <f>IF(H48&gt;H46,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H47" s="1">
-        <v>0</v>
-      </c>
-      <c r="I47" s="1">
-        <v>0</v>
-      </c>
-      <c r="L47" s="1">
-        <v>0</v>
-      </c>
-      <c r="M47" s="2"/>
-    </row>
-    <row r="48" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H48" s="1">
-        <v>1.4646399999999999</v>
-      </c>
-      <c r="I48" s="1">
-        <v>0.78</v>
-      </c>
-      <c r="L48" s="1">
-        <v>12541</v>
-      </c>
-      <c r="M48" s="2"/>
-    </row>
-    <row r="49" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="7"/>
-      <c r="M49" s="2"/>
-    </row>
-    <row r="50" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="7"/>
-      <c r="M50" s="2"/>
-    </row>
-    <row r="51" spans="4:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="16">
-        <v>0.2</v>
-      </c>
-      <c r="G51" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H51" s="11">
-        <v>1.0765499999999999</v>
-      </c>
-      <c r="I51" s="11">
-        <v>0.2</v>
-      </c>
-      <c r="J51" s="14"/>
-      <c r="K51" s="14"/>
-      <c r="L51" s="11">
-        <v>38737</v>
-      </c>
-      <c r="M51" s="2"/>
-      <c r="N51" s="11">
-        <f>IF(I52&lt;N$3*I51, 1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O51" s="11">
-        <f>IF(H53&gt;H51,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="P51" s="11">
-        <f t="shared" si="4"/>
-        <v>3.654999999999986E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H52" s="1">
-        <v>1.04</v>
-      </c>
-      <c r="I52" s="1">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="L52" s="1">
-        <v>17351</v>
-      </c>
-      <c r="M52" s="2"/>
-    </row>
-    <row r="53" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H53" s="1">
-        <v>0.72172599999999998</v>
-      </c>
-      <c r="I53" s="1">
-        <v>0.32</v>
-      </c>
-      <c r="L53" s="1">
-        <v>15370</v>
-      </c>
-      <c r="M53" s="2"/>
-    </row>
-    <row r="54" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="7"/>
-      <c r="M54" s="2"/>
-    </row>
-    <row r="55" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="6"/>
-      <c r="M55" s="2"/>
-    </row>
-    <row r="56" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="6"/>
-      <c r="M56" s="2"/>
-    </row>
-    <row r="57" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D57" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F57" s="8">
-        <f>0.785398*180/PI()</f>
-        <v>44.999990638015838</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H57" s="1">
-        <v>3.43797</v>
-      </c>
-      <c r="I57" s="1">
-        <v>0.78539800000000004</v>
-      </c>
-      <c r="J57" s="5">
-        <f>AVERAGE(H57,H62,H67,H72,H77)</f>
-        <v>1.9214838000000001</v>
-      </c>
-      <c r="K57" s="5">
-        <f>AVERAGE(I57,I62,I67,I72,I77)</f>
-        <v>0.83775840000000001</v>
-      </c>
-      <c r="L57" s="1">
-        <v>123396</v>
-      </c>
-      <c r="M57" s="2">
-        <f>AVERAGE(L67+L72+L77)/1000000</f>
-        <v>0.26783099999999999</v>
-      </c>
-      <c r="N57" s="1">
-        <f>IF(I58&lt;N$3*I57, 1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="O57" s="1">
-        <f>IF(H59&gt;H57,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H58" s="1">
-        <v>1.07019</v>
-      </c>
-      <c r="I58" s="1">
-        <v>0.62831800000000004</v>
-      </c>
-      <c r="J58" s="5">
-        <f>SUM(H58,H63,H68,H73,H78)/4</f>
-        <v>0.99187625000000001</v>
-      </c>
-      <c r="K58" s="5">
-        <f>SUM(I58,I63,I68,I73,I78)/4</f>
-        <v>1.3823015000000001</v>
-      </c>
-      <c r="L58" s="1">
-        <v>54149</v>
-      </c>
-      <c r="M58" s="2">
-        <f t="shared" ref="M58:M59" si="5">AVERAGE(L68+L73+L78)/1000000</f>
-        <v>6.3263E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H59" s="1">
-        <v>0.953152</v>
-      </c>
-      <c r="I59" s="1">
-        <v>2.6428880000000001</v>
-      </c>
-      <c r="J59" s="5">
-        <f t="shared" ref="J59:K59" si="6">AVERAGE(H59,H64,H69,H74,H79)</f>
-        <v>1.0396576</v>
-      </c>
-      <c r="K59" s="5">
-        <f t="shared" si="6"/>
-        <v>3.6632333228718346</v>
-      </c>
-      <c r="L59" s="1">
-        <v>2201</v>
-      </c>
-      <c r="M59" s="2">
-        <f t="shared" si="5"/>
-        <v>6.8760000000000002E-3</v>
-      </c>
-    </row>
-    <row r="60" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="8"/>
-      <c r="M60" s="2"/>
-    </row>
-    <row r="61" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="8"/>
-      <c r="M61" s="2"/>
-    </row>
-    <row r="62" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="8">
-        <f>0.785398*180/PI()</f>
-        <v>44.999990638015838</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H62" s="1">
-        <v>3.3031999999999999</v>
-      </c>
-      <c r="I62" s="1">
-        <v>0.78539800000000004</v>
-      </c>
-      <c r="L62" s="1">
-        <v>125327</v>
-      </c>
-      <c r="M62" s="2"/>
-      <c r="N62" s="1">
-        <f>IF(I63&lt;N$3*I62, 1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="O62" s="1">
-        <f>IF(H64&gt;H62,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H63" s="1">
-        <v>0</v>
-      </c>
-      <c r="I63" s="1">
-        <v>0</v>
-      </c>
-      <c r="L63" s="1">
-        <v>0</v>
-      </c>
-      <c r="M63" s="2"/>
-    </row>
-    <row r="64" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H64" s="1">
-        <v>0.95394699999999999</v>
-      </c>
-      <c r="I64" s="1">
-        <f>2*PI()</f>
-        <v>6.2831853071795862</v>
-      </c>
-      <c r="L64" s="1">
-        <v>2226</v>
-      </c>
-      <c r="M64" s="2"/>
-    </row>
-    <row r="65" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="8"/>
-      <c r="M65" s="2"/>
-    </row>
-    <row r="66" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="8"/>
-      <c r="M66" s="2"/>
-    </row>
-    <row r="67" spans="4:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D67" s="12"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="13">
-        <f>0.785398*180/PI()</f>
-        <v>44.999990638015838</v>
-      </c>
-      <c r="G67" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H67" s="11">
-        <v>0.97177899999999995</v>
-      </c>
-      <c r="I67" s="11">
-        <v>0.78539800000000004</v>
-      </c>
-      <c r="J67" s="14"/>
-      <c r="K67" s="14"/>
-      <c r="L67" s="11">
-        <v>36533</v>
-      </c>
-      <c r="M67" s="2"/>
-      <c r="N67" s="11">
-        <f>IF(I68&lt;N$3*I67, 1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O67" s="11">
-        <f>IF(H69&gt;H67,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="P67" s="11">
-        <f t="shared" si="4"/>
-        <v>3.6130000000000884E-3</v>
-      </c>
-    </row>
-    <row r="68" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D68" s="3"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H68" s="1">
-        <v>0.97539200000000004</v>
-      </c>
-      <c r="I68" s="1">
-        <v>2.6389399999999998</v>
-      </c>
-      <c r="L68" s="1">
-        <v>14581</v>
-      </c>
-      <c r="M68" s="2"/>
-    </row>
-    <row r="69" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H69" s="1">
-        <v>0.99530399999999997</v>
-      </c>
-      <c r="I69" s="1">
-        <f>2*PI()</f>
-        <v>6.2831853071795862</v>
-      </c>
-      <c r="L69" s="1">
-        <v>2289</v>
-      </c>
-      <c r="M69" s="2"/>
-    </row>
-    <row r="70" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="8"/>
-      <c r="M70" s="2"/>
-    </row>
-    <row r="71" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="8"/>
-      <c r="M71" s="2"/>
-    </row>
-    <row r="72" spans="4:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D72" s="12"/>
-      <c r="E72" s="12"/>
-      <c r="F72" s="13">
-        <f>0.785398*180/PI()</f>
-        <v>44.999990638015838</v>
-      </c>
-      <c r="G72" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H72" s="11">
-        <v>0.80662999999999996</v>
-      </c>
-      <c r="I72" s="11">
-        <v>0.78539800000000004</v>
-      </c>
-      <c r="J72" s="14"/>
-      <c r="K72" s="14"/>
-      <c r="L72" s="11">
-        <v>119484</v>
-      </c>
-      <c r="M72" s="2"/>
-      <c r="N72" s="11">
-        <f>IF(I73&lt;N$3*I72, 1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O72" s="11">
-        <f>IF(H74&gt;H72,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="P72" s="11">
-        <f t="shared" ref="P72:P77" si="7">ABS(H73-H72)</f>
-        <v>1.5883000000000091E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H73" s="1">
-        <v>0.82251300000000005</v>
-      </c>
-      <c r="I73" s="1">
-        <v>0.94247800000000004</v>
-      </c>
-      <c r="L73" s="1">
-        <v>29489</v>
-      </c>
-      <c r="M73" s="2"/>
-    </row>
-    <row r="74" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H74" s="1">
-        <v>0.98334500000000002</v>
-      </c>
-      <c r="I74" s="1">
-        <v>1.2456320000000001</v>
-      </c>
-      <c r="L74" s="1">
-        <v>2309</v>
-      </c>
-      <c r="M74" s="2"/>
-    </row>
-    <row r="75" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="8"/>
-      <c r="M75" s="2"/>
-    </row>
-    <row r="76" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="8"/>
-      <c r="M76" s="2"/>
-    </row>
-    <row r="77" spans="4:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D77" s="12"/>
-      <c r="E77" s="12"/>
-      <c r="F77" s="13">
-        <f>1.0472*180/PI()</f>
-        <v>60.000140306099802</v>
-      </c>
-      <c r="G77" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H77" s="11">
-        <v>1.0878399999999999</v>
-      </c>
-      <c r="I77" s="11">
-        <v>1.0471999999999999</v>
-      </c>
-      <c r="J77" s="14"/>
-      <c r="K77" s="14"/>
-      <c r="L77" s="11">
-        <v>111814</v>
-      </c>
-      <c r="M77" s="2"/>
-      <c r="N77" s="11">
-        <f>IF(I78&lt;N$3*I77, 1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O77" s="11">
-        <f>IF(H79&gt;H77,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="P77" s="11">
-        <f t="shared" si="7"/>
-        <v>1.157000000000008E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H78" s="1">
-        <v>1.09941</v>
-      </c>
-      <c r="I78" s="1">
-        <v>1.3194699999999999</v>
-      </c>
-      <c r="L78" s="1">
-        <v>19193</v>
-      </c>
-      <c r="M78" s="2"/>
-    </row>
-    <row r="79" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="8"/>
-      <c r="G79" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H79" s="1">
-        <v>1.31254</v>
-      </c>
-      <c r="I79" s="1">
-        <v>1.8612759999999999</v>
-      </c>
-      <c r="L79" s="1">
-        <v>2278</v>
-      </c>
-      <c r="M79" s="2"/>
-    </row>
-    <row r="80" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="E80" s="3"/>
-      <c r="F80" s="7"/>
-      <c r="L80" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N80" s="1">
-        <f>(SUM(N5:N79)/15)*100</f>
-        <v>53.333333333333336</v>
-      </c>
-    </row>
-    <row r="81" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L81" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N81" s="1">
-        <f>SUM(H5+H10+H15+H20+H25+H31+H36+H41+H46+H51+H57+H62+H67+H72+H77)</f>
-        <v>33.552138999999997</v>
-      </c>
-      <c r="O81" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P81" s="1">
-        <f>MAX(P5:P77)</f>
-        <v>4.2140000000000288E-2</v>
-      </c>
-    </row>
-    <row r="82" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L82" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N82" s="1">
-        <f>SUM(H7+H12+H17+H22+H27+H33+H38+H43+H48+H53+H59+H64+H69+H74+H79)</f>
-        <v>15.271353</v>
-      </c>
-    </row>
-    <row r="83" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="N83" s="1">
-        <f>(N82/N81)*100</f>
-        <v>45.515288906021759</v>
-      </c>
-    </row>
-    <row r="85" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L85" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N85" s="1">
-        <f>(SUM(O5:O78)/15)*100</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="86" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="N86" s="1">
-        <f>MAX(((H69-H67)/H67)*100,((H74-H72)/H72)*100,((H79-H77)/H77)*100)</f>
-        <v>21.90781399154508</v>
-      </c>
-    </row>
-    <row r="87" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="N87" s="1">
-        <f>((H69-H67)/H67)*100</f>
-        <v>2.4208179020127023</v>
-      </c>
-    </row>
-    <row r="89" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L89" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M89" s="1">
-        <f>(((M6+M32+M58)/(M7+M33+M59))-1)*100</f>
-        <v>450.55741741330957</v>
-      </c>
-    </row>
-    <row r="90" spans="12:16" x14ac:dyDescent="0.25">
-      <c r="L90" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M90" s="1">
-        <f>(((M5+M31+M57)/(M7+M33+M59))-1)*100</f>
-        <v>1362.6541732211658</v>
-      </c>
-    </row>
-    <row r="117" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D117" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F117" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H117" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I117" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J117" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K117" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L117" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M117" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N117" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O117" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="P117" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="118" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D118" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E118" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F118" s="8">
-        <f>0.628319*180/PI()</f>
-        <v>36.000026887880374</v>
-      </c>
-      <c r="H118" s="1">
-        <v>2.83846</v>
-      </c>
-      <c r="I118" s="1">
-        <v>0.62831899999999996</v>
-      </c>
-      <c r="J118" s="2">
-        <v>157034</v>
-      </c>
-      <c r="K118" s="1">
-        <v>1.44215</v>
-      </c>
-      <c r="L118" s="1">
-        <v>0.508938</v>
-      </c>
-      <c r="M118" s="2">
-        <v>51849</v>
-      </c>
-      <c r="N118" s="1">
-        <v>1.0477700000000001</v>
-      </c>
-      <c r="O118" s="1">
-        <v>1.3926890000000001</v>
-      </c>
-      <c r="P118" s="2">
-        <v>4788</v>
-      </c>
-    </row>
-    <row r="119" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D119" s="12"/>
-      <c r="E119" s="12"/>
-      <c r="F119" s="13">
-        <f>0.785398*180/PI()</f>
-        <v>44.999990638015838</v>
-      </c>
-      <c r="G119" s="11"/>
-      <c r="H119" s="11">
-        <v>1.7043900000000001</v>
-      </c>
-      <c r="I119" s="11">
-        <v>0.78539800000000004</v>
-      </c>
-      <c r="J119" s="15">
-        <v>117270</v>
-      </c>
-      <c r="K119" s="1">
-        <v>1.7021999999999999</v>
-      </c>
-      <c r="L119" s="1">
-        <v>0.83252199999999998</v>
-      </c>
-      <c r="M119" s="2">
-        <v>49280</v>
-      </c>
-      <c r="N119" s="1">
-        <v>1.3629100000000001</v>
-      </c>
-      <c r="O119" s="1">
-        <f>PI()/2</f>
-        <v>1.5707963267948966</v>
-      </c>
-      <c r="P119" s="1">
-        <v>5144</v>
-      </c>
-    </row>
-    <row r="120" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D120" s="3"/>
-      <c r="E120" s="3"/>
-      <c r="F120" s="8">
-        <f>0.837758*180/PI()</f>
-        <v>47.999997653320818</v>
-      </c>
-      <c r="H120" s="1">
-        <v>3.9019400000000002</v>
-      </c>
-      <c r="I120" s="1">
-        <v>0.837758</v>
-      </c>
-      <c r="J120" s="2">
-        <v>156956</v>
-      </c>
-      <c r="K120" s="1">
-        <v>1.83582</v>
-      </c>
-      <c r="L120" s="1">
-        <v>0.75398200000000004</v>
-      </c>
-      <c r="M120" s="2">
-        <v>45038</v>
-      </c>
-      <c r="N120" s="1">
-        <v>1.43967</v>
-      </c>
-      <c r="O120" s="1">
-        <v>1.53</v>
-      </c>
-      <c r="P120" s="1">
-        <v>5006</v>
-      </c>
-    </row>
-    <row r="121" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D121" s="3"/>
-      <c r="E121" s="3"/>
-      <c r="F121" s="8">
-        <f>0.448799*180/PI()</f>
-        <v>25.714288549691837</v>
-      </c>
-      <c r="H121" s="1">
-        <v>1.4413899999999999</v>
-      </c>
-      <c r="I121" s="1">
-        <v>0.448799</v>
-      </c>
-      <c r="J121" s="2">
-        <v>94078</v>
-      </c>
-      <c r="K121" s="1">
-        <v>1.15516</v>
-      </c>
-      <c r="L121" s="1">
-        <v>0.42187000000000002</v>
-      </c>
-      <c r="M121" s="2">
-        <v>52616</v>
-      </c>
-      <c r="N121" s="1">
-        <v>0.80431799999999998</v>
-      </c>
-      <c r="O121" s="1">
-        <v>1.1520379999999999</v>
-      </c>
-      <c r="P121" s="2">
-        <v>5620</v>
-      </c>
-    </row>
-    <row r="122" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D122" s="3"/>
-      <c r="E122" s="3"/>
-      <c r="F122" s="8">
-        <f>0.698132*180/PI()</f>
-        <v>40.000017143027186</v>
-      </c>
-      <c r="H122" s="1">
-        <v>2.29182</v>
-      </c>
-      <c r="I122" s="1">
-        <v>0.69813199999999997</v>
-      </c>
-      <c r="J122" s="2">
-        <v>157854</v>
-      </c>
-      <c r="K122" s="1">
-        <v>1.6437299999999999</v>
-      </c>
-      <c r="L122" s="1">
-        <v>0.64926300000000003</v>
-      </c>
-      <c r="M122" s="2">
-        <v>64435</v>
-      </c>
-      <c r="N122" s="1">
-        <v>1.2106699999999999</v>
-      </c>
-      <c r="O122" s="1">
-        <v>1.2183189999999999</v>
-      </c>
-      <c r="P122" s="1">
-        <v>5143</v>
-      </c>
-    </row>
-    <row r="123" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D123" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E123" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F123" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="H123" s="1">
-        <v>2.8505099999999999</v>
-      </c>
-      <c r="I123" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="J123" s="1">
-        <v>187370</v>
-      </c>
-      <c r="K123" s="1">
-        <v>0</v>
-      </c>
-      <c r="L123" s="1">
-        <v>0</v>
-      </c>
-      <c r="M123" s="1">
-        <v>0</v>
-      </c>
-      <c r="N123" s="1">
-        <v>0.33453500000000003</v>
-      </c>
-      <c r="O123" s="1">
-        <v>0.23</v>
-      </c>
-      <c r="P123" s="1">
-        <v>9163</v>
-      </c>
-    </row>
-    <row r="124" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D124" s="12"/>
-      <c r="E124" s="12"/>
-      <c r="F124" s="16">
-        <v>0.3</v>
-      </c>
-      <c r="G124" s="11"/>
-      <c r="H124" s="11">
-        <v>2.1236600000000001</v>
-      </c>
-      <c r="I124" s="11">
-        <v>0.3</v>
-      </c>
-      <c r="J124" s="11">
-        <v>130401</v>
-      </c>
-      <c r="K124" s="1">
-        <v>2.0815199999999998</v>
-      </c>
-      <c r="L124" s="1">
-        <v>0.36</v>
-      </c>
-      <c r="M124" s="1">
-        <v>66481</v>
-      </c>
-      <c r="N124" s="1">
-        <v>0.67907600000000001</v>
-      </c>
-      <c r="O124" s="1">
-        <v>0.43890699999999999</v>
-      </c>
-      <c r="P124" s="1">
-        <v>9341</v>
-      </c>
-    </row>
-    <row r="125" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D125" s="12"/>
-      <c r="E125" s="12"/>
-      <c r="F125" s="16">
-        <v>0.3</v>
-      </c>
-      <c r="G125" s="11"/>
-      <c r="H125" s="11">
-        <v>1.6878200000000001</v>
-      </c>
-      <c r="I125" s="11">
-        <v>0.3</v>
-      </c>
-      <c r="J125" s="11">
-        <v>87325</v>
-      </c>
-      <c r="K125" s="1">
-        <v>1.6475599999999999</v>
-      </c>
-      <c r="L125" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="M125" s="1">
-        <v>45116</v>
-      </c>
-      <c r="N125" s="1">
-        <v>1.0077499999999999</v>
-      </c>
-      <c r="O125" s="1">
-        <v>0.43889699999999998</v>
-      </c>
-      <c r="P125" s="1">
-        <v>7132</v>
-      </c>
-    </row>
-    <row r="126" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D126" s="3"/>
-      <c r="E126" s="3"/>
-      <c r="F126" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="H126" s="1">
-        <v>4.0281799999999999</v>
-      </c>
-      <c r="I126" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="J126" s="1">
-        <v>197185</v>
-      </c>
-      <c r="K126" s="1">
-        <v>0</v>
-      </c>
-      <c r="L126" s="1">
-        <v>0</v>
-      </c>
-      <c r="M126" s="1">
-        <v>0</v>
-      </c>
-      <c r="N126" s="1">
-        <v>1.4646399999999999</v>
-      </c>
-      <c r="O126" s="1">
-        <v>0.78</v>
-      </c>
-      <c r="P126" s="1">
-        <v>12541</v>
-      </c>
-    </row>
-    <row r="127" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D127" s="12"/>
-      <c r="E127" s="12"/>
-      <c r="F127" s="16">
-        <v>0.2</v>
-      </c>
-      <c r="G127" s="11"/>
-      <c r="H127" s="11">
-        <v>1.0765499999999999</v>
-      </c>
-      <c r="I127" s="11">
-        <v>0.2</v>
-      </c>
-      <c r="J127" s="11">
-        <v>38737</v>
-      </c>
-      <c r="K127" s="1">
-        <v>1.04</v>
-      </c>
-      <c r="L127" s="1">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="M127" s="1">
-        <v>17351</v>
-      </c>
-      <c r="N127" s="1">
-        <v>0.72172599999999998</v>
-      </c>
-      <c r="O127" s="1">
-        <v>0.32</v>
-      </c>
-      <c r="P127" s="1">
-        <v>15370</v>
-      </c>
-    </row>
-    <row r="128" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D128" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E128" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F128" s="8">
-        <f>0.785398*180/PI()</f>
-        <v>44.999990638015838</v>
-      </c>
-      <c r="H128" s="1">
-        <v>3.43797</v>
-      </c>
-      <c r="I128" s="1">
-        <v>0.78539800000000004</v>
-      </c>
-      <c r="J128" s="1">
-        <v>123396</v>
-      </c>
-      <c r="K128" s="1">
-        <v>1.07019</v>
-      </c>
-      <c r="L128" s="1">
-        <v>0.62831800000000004</v>
-      </c>
-      <c r="M128" s="1">
-        <v>54149</v>
-      </c>
-      <c r="N128" s="1">
-        <v>0.953152</v>
-      </c>
-      <c r="O128" s="1">
-        <v>2.6428880000000001</v>
-      </c>
-      <c r="P128" s="1">
-        <v>2201</v>
-      </c>
-    </row>
-    <row r="129" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D129" s="3"/>
-      <c r="E129" s="3"/>
-      <c r="F129" s="8">
-        <f>0.785398*180/PI()</f>
-        <v>44.999990638015838</v>
-      </c>
-      <c r="H129" s="1">
-        <v>3.3031999999999999</v>
-      </c>
-      <c r="I129" s="1">
-        <v>0.78539800000000004</v>
-      </c>
-      <c r="J129" s="1">
-        <v>125327</v>
-      </c>
-      <c r="K129" s="1">
-        <v>0</v>
-      </c>
-      <c r="L129" s="1">
-        <v>0</v>
-      </c>
-      <c r="M129" s="1">
-        <v>0</v>
-      </c>
-      <c r="N129" s="1">
-        <v>0.95394699999999999</v>
-      </c>
-      <c r="O129" s="1">
-        <f>2*PI()</f>
-        <v>6.2831853071795862</v>
-      </c>
-      <c r="P129" s="1">
-        <v>2226</v>
-      </c>
-    </row>
-    <row r="130" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D130" s="12"/>
-      <c r="E130" s="12"/>
-      <c r="F130" s="13">
-        <f>0.785398*180/PI()</f>
-        <v>44.999990638015838</v>
-      </c>
-      <c r="G130" s="11"/>
-      <c r="H130" s="11">
-        <v>0.97177899999999995</v>
-      </c>
-      <c r="I130" s="11">
-        <v>0.78539800000000004</v>
-      </c>
-      <c r="J130" s="11">
-        <v>36533</v>
-      </c>
-      <c r="K130" s="1">
-        <v>0.97539200000000004</v>
-      </c>
-      <c r="L130" s="1">
-        <v>2.6389399999999998</v>
-      </c>
-      <c r="M130" s="1">
-        <v>14581</v>
-      </c>
-      <c r="N130" s="1">
-        <v>0.99530399999999997</v>
-      </c>
-      <c r="O130" s="1">
-        <f>2*PI()</f>
-        <v>6.2831853071795862</v>
-      </c>
-      <c r="P130" s="1">
-        <v>2289</v>
-      </c>
-    </row>
-    <row r="131" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D131" s="12"/>
-      <c r="E131" s="12"/>
-      <c r="F131" s="13">
-        <f>0.785398*180/PI()</f>
-        <v>44.999990638015838</v>
-      </c>
-      <c r="G131" s="11"/>
-      <c r="H131" s="11">
-        <v>0.80662999999999996</v>
-      </c>
-      <c r="I131" s="11">
-        <v>0.78539800000000004</v>
-      </c>
-      <c r="J131" s="11">
-        <v>119484</v>
-      </c>
-      <c r="K131" s="1">
-        <v>0.82251300000000005</v>
-      </c>
-      <c r="L131" s="1">
-        <v>0.94247800000000004</v>
-      </c>
-      <c r="M131" s="1">
-        <v>29489</v>
-      </c>
-      <c r="N131" s="1">
-        <v>0.98334500000000002</v>
-      </c>
-      <c r="O131" s="1">
-        <v>1.2456320000000001</v>
-      </c>
-      <c r="P131" s="1">
-        <v>2309</v>
-      </c>
-    </row>
-    <row r="132" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D132" s="12"/>
-      <c r="E132" s="12"/>
-      <c r="F132" s="13">
-        <f>1.0472*180/PI()</f>
-        <v>60.000140306099802</v>
-      </c>
-      <c r="G132" s="11"/>
-      <c r="H132" s="11">
-        <v>1.0878399999999999</v>
-      </c>
-      <c r="I132" s="11">
-        <v>1.0471999999999999</v>
-      </c>
-      <c r="J132" s="11">
-        <v>111814</v>
-      </c>
-      <c r="K132" s="1">
-        <v>1.09941</v>
-      </c>
-      <c r="L132" s="1">
-        <v>1.3194699999999999</v>
-      </c>
-      <c r="M132" s="1">
-        <v>19193</v>
-      </c>
-      <c r="N132" s="1">
-        <v>1.31254</v>
-      </c>
-      <c r="O132" s="1">
-        <v>1.8612759999999999</v>
-      </c>
-      <c r="P132" s="1">
-        <v>2278</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26412DA8-AF8B-424F-9A42-3270986B77E9}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G37" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="N57" sqref="N57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="4" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" style="4" customWidth="1"/>
-    <col min="7" max="8" width="9.140625" style="4"/>
-    <col min="9" max="9" width="12.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="28.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="O1" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
+      <c r="D1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C2" s="6"/>
-      <c r="D2" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="17" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="O2" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="P2" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q2" s="17" t="s">
-        <v>17</v>
+      <c r="O2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="6">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2">
         <f>0.628319*180/PI()</f>
         <v>36.000026887880374</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="1">
         <v>2.83846</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="1">
         <v>1.44215</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="1">
         <v>1.0477700000000001</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="1">
         <v>0.62831899999999996</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="1">
         <v>0.508938</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="1">
         <v>1.3926890000000001</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="1">
         <v>157034</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="1">
         <v>51849</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="1">
         <v>4788</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="1">
         <v>1704</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="1">
         <f>IF(H3&lt;G3,0,1)</f>
         <v>0</v>
       </c>
-      <c r="O3" s="4">
+      <c r="O3" s="1">
         <f>J3/1000000</f>
         <v>0.15703400000000001</v>
       </c>
-      <c r="P3" s="4">
+      <c r="P3" s="1">
         <f t="shared" ref="P3:P17" si="0">K3/1000000</f>
         <v>5.1848999999999999E-2</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="Q3" s="1">
         <f>(L3+M3)/1000000</f>
         <v>6.4920000000000004E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="19">
+    <row r="4" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="6">
         <f>0.785398*180/PI()</f>
         <v>44.999990638015838</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="5">
         <v>1.7043900000000001</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="5">
         <v>1.7021999999999999</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="5">
         <v>1.3629100000000001</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="5">
         <v>0.78539800000000004</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="5">
         <v>0.83252199999999998</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4" s="5">
         <v>1.5707963267948966</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="5">
         <v>117270</v>
       </c>
-      <c r="K4" s="18">
+      <c r="K4" s="5">
         <v>49280</v>
       </c>
-      <c r="L4" s="18">
+      <c r="L4" s="5">
         <v>5144</v>
       </c>
-      <c r="M4" s="18">
+      <c r="M4" s="5">
         <v>1747</v>
       </c>
-      <c r="N4" s="18">
+      <c r="N4" s="5">
         <f t="shared" ref="N4:N17" si="1">IF(H4&lt;G4,0,1)</f>
         <v>1</v>
       </c>
-      <c r="O4" s="18">
+      <c r="O4" s="5">
         <f t="shared" ref="O4:O17" si="2">J4/1000000</f>
         <v>0.11727</v>
       </c>
-      <c r="P4" s="18">
+      <c r="P4" s="5">
         <f t="shared" si="0"/>
         <v>4.9279999999999997E-2</v>
       </c>
-      <c r="Q4" s="18">
+      <c r="Q4" s="5">
         <f>(L4+M4)/1000000</f>
         <v>6.8910000000000004E-3</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C5" s="6">
+      <c r="C5" s="2">
         <f>0.837758*180/PI()</f>
         <v>47.999997653320818</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="1">
         <v>3.9019400000000002</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="1">
         <v>1.83582</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="1">
         <v>1.43967</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="1">
         <v>0.837758</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="1">
         <v>0.75398200000000004</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="1">
         <v>1.53</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="1">
         <v>156956</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="1">
         <v>45038</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="1">
         <v>5006</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="1">
         <v>1857</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="1">
         <f t="shared" si="2"/>
         <v>0.15695600000000001</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="1">
         <f t="shared" si="0"/>
         <v>4.5038000000000002E-2</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q5" s="1">
         <f>(L5+M5)/1000000</f>
         <v>6.8630000000000002E-3</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C6" s="6">
+      <c r="C6" s="2">
         <f>0.448799*180/PI()</f>
         <v>25.714288549691837</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="1">
         <v>1.4413899999999999</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="1">
         <v>1.15516</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="1">
         <v>0.80431799999999998</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="1">
         <v>0.448799</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="1">
         <v>0.42187000000000002</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="1">
         <v>1.1520379999999999</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="1">
         <v>94078</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="1">
         <v>52616</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="1">
         <v>5620</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="1">
         <v>1975</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6" s="1">
         <f t="shared" si="2"/>
         <v>9.4077999999999995E-2</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P6" s="1">
         <f t="shared" si="0"/>
         <v>5.2616000000000003E-2</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="Q6" s="1">
         <f t="shared" ref="Q6:Q17" si="3">(L6+M6)/1000000</f>
         <v>7.5950000000000002E-3</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C7" s="6">
+      <c r="C7" s="2">
         <f>0.698132*180/PI()</f>
         <v>40.000017143027186</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="1">
         <v>2.29182</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="1">
         <v>1.6437299999999999</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="1">
         <v>1.2106699999999999</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="1">
         <v>0.69813199999999997</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="1">
         <v>0.64926300000000003</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="1">
         <v>1.2183189999999999</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="1">
         <v>157854</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="1">
         <v>64435</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="1">
         <v>5143</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7" s="1">
         <v>1894</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="1">
         <f t="shared" si="2"/>
         <v>0.15785399999999999</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7" s="1">
         <f t="shared" si="0"/>
         <v>6.4435000000000006E-2</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="Q7" s="1">
         <f t="shared" si="3"/>
         <v>7.0369999999999999E-3</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="6">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2">
         <v>0.15</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="1">
         <v>2.8505099999999999</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="1">
         <v>0</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="1">
         <v>0.33453500000000003</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="1">
         <v>0.15</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="1">
         <v>0</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="1">
         <v>0.23</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="1">
         <v>187370</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="1">
         <v>0</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="1">
         <v>9163</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="1">
         <v>2025</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="1">
         <f t="shared" si="2"/>
         <v>0.18737000000000001</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q8" s="1">
         <f t="shared" si="3"/>
         <v>1.1188E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="19">
+    <row r="9" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="6">
         <v>0.3</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="5">
         <v>2.1236600000000001</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="5">
         <v>2.0815199999999998</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="5">
         <v>0.67907600000000001</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="5">
         <v>0.3</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H9" s="5">
         <v>0.36</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="5">
         <v>0.43890699999999999</v>
       </c>
-      <c r="J9" s="18">
+      <c r="J9" s="5">
         <v>130401</v>
       </c>
-      <c r="K9" s="18">
+      <c r="K9" s="5">
         <v>66481</v>
       </c>
-      <c r="L9" s="18">
+      <c r="L9" s="5">
         <v>9341</v>
       </c>
-      <c r="M9" s="18">
+      <c r="M9" s="5">
         <v>2012</v>
       </c>
-      <c r="N9" s="18">
+      <c r="N9" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O9" s="18">
+      <c r="O9" s="5">
         <f t="shared" si="2"/>
         <v>0.13040099999999999</v>
       </c>
-      <c r="P9" s="18">
+      <c r="P9" s="5">
         <f t="shared" si="0"/>
         <v>6.6480999999999998E-2</v>
       </c>
-      <c r="Q9" s="18">
+      <c r="Q9" s="5">
         <f t="shared" si="3"/>
         <v>1.1353E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="19">
+    <row r="10" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="6">
         <v>0.3</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="5">
         <v>1.6878200000000001</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="5">
         <v>1.6475599999999999</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="5">
         <v>1.0077499999999999</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="5">
         <v>0.3</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H10" s="5">
         <v>0.3</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="5">
         <v>0.43889699999999998</v>
       </c>
-      <c r="J10" s="18">
+      <c r="J10" s="5">
         <v>87325</v>
       </c>
-      <c r="K10" s="18">
+      <c r="K10" s="5">
         <v>45116</v>
       </c>
-      <c r="L10" s="18">
+      <c r="L10" s="5">
         <v>7132</v>
       </c>
-      <c r="M10" s="18">
+      <c r="M10" s="5">
         <v>1958</v>
       </c>
-      <c r="N10" s="18">
+      <c r="N10" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O10" s="18">
+      <c r="O10" s="5">
         <f t="shared" si="2"/>
         <v>8.7325E-2</v>
       </c>
-      <c r="P10" s="18">
+      <c r="P10" s="5">
         <f t="shared" si="0"/>
         <v>4.5116000000000003E-2</v>
       </c>
-      <c r="Q10" s="18">
+      <c r="Q10" s="5">
         <f t="shared" si="3"/>
         <v>9.0900000000000009E-3</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C11" s="6">
+      <c r="C11" s="2">
         <v>0.3</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="1">
         <v>4.0281799999999999</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="1">
         <v>0</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="1">
         <v>1.4646399999999999</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="1">
         <v>0.3</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="1">
         <v>0</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="1">
         <v>0.78</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="1">
         <v>197185</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="1">
         <v>0</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="1">
         <v>12541</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11" s="1">
         <v>2184</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O11" s="1">
         <f t="shared" si="2"/>
         <v>0.197185</v>
       </c>
-      <c r="P11" s="4">
+      <c r="P11" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="Q11" s="1">
         <f t="shared" si="3"/>
         <v>1.4725E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="19">
+    <row r="12" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="6">
         <v>0.2</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="5">
         <v>1.0765499999999999</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="5">
         <v>1.04</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="5">
         <v>0.72172599999999998</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="5">
         <v>0.2</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H12" s="5">
         <v>0.27500000000000002</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="5">
         <v>0.32</v>
       </c>
-      <c r="J12" s="18">
+      <c r="J12" s="5">
         <v>38737</v>
       </c>
-      <c r="K12" s="18">
+      <c r="K12" s="5">
         <v>17351</v>
       </c>
-      <c r="L12" s="18">
+      <c r="L12" s="5">
         <v>15370</v>
       </c>
-      <c r="M12" s="18">
+      <c r="M12" s="5">
         <v>1769</v>
       </c>
-      <c r="N12" s="18">
+      <c r="N12" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O12" s="18">
+      <c r="O12" s="5">
         <f t="shared" si="2"/>
         <v>3.8737000000000001E-2</v>
       </c>
-      <c r="P12" s="18">
+      <c r="P12" s="5">
         <f t="shared" si="0"/>
         <v>1.7350999999999998E-2</v>
       </c>
-      <c r="Q12" s="18">
+      <c r="Q12" s="5">
         <f t="shared" si="3"/>
         <v>1.7139000000000001E-2</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="6">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2">
         <f>0.785398*180/PI()</f>
         <v>44.999990638015838</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="1">
         <v>3.43797</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="1">
         <v>1.07019</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="1">
         <v>0.953152</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="1">
         <v>0.78539800000000004</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="1">
         <v>0.62831800000000004</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="1">
         <v>2.6428880000000001</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="1">
         <v>123396</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="1">
         <v>54149</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="1">
         <v>2201</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M13" s="1">
         <v>1736</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O13" s="1">
         <f t="shared" si="2"/>
         <v>0.12339600000000001</v>
       </c>
-      <c r="P13" s="4">
+      <c r="P13" s="1">
         <f t="shared" si="0"/>
         <v>5.4149000000000003E-2</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="Q13" s="1">
         <f t="shared" si="3"/>
         <v>3.9370000000000004E-3</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C14" s="6">
+      <c r="C14" s="2">
         <f>0.785398*180/PI()</f>
         <v>44.999990638015838</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="1">
         <v>3.3031999999999999</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="1">
         <v>0</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="1">
         <v>0.95394699999999999</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="1">
         <v>0.78539800000000004</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="1">
         <v>0</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="1">
         <v>6.2831853071795862</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="1">
         <v>125327</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="1">
         <v>0</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="1">
         <v>2226</v>
       </c>
-      <c r="M14" s="4">
+      <c r="M14" s="1">
         <v>1658</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O14" s="4">
+      <c r="O14" s="1">
         <f t="shared" si="2"/>
         <v>0.12532699999999999</v>
       </c>
-      <c r="P14" s="4">
+      <c r="P14" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="Q14" s="1">
         <f t="shared" si="3"/>
         <v>3.8839999999999999E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="19">
+    <row r="15" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="6">
         <f>0.785398*180/PI()</f>
         <v>44.999990638015838</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="5">
         <v>0.97177899999999995</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="5">
         <v>0.97539200000000004</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="5">
         <v>0.99530399999999997</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G15" s="5">
         <v>0.78539800000000004</v>
       </c>
-      <c r="H15" s="18">
+      <c r="H15" s="5">
         <v>2.6389399999999998</v>
       </c>
-      <c r="I15" s="18">
+      <c r="I15" s="5">
         <v>6.2831853071795862</v>
       </c>
-      <c r="J15" s="18">
+      <c r="J15" s="5">
         <v>36533</v>
       </c>
-      <c r="K15" s="18">
+      <c r="K15" s="5">
         <v>14581</v>
       </c>
-      <c r="L15" s="18">
+      <c r="L15" s="5">
         <v>2289</v>
       </c>
-      <c r="M15" s="18">
+      <c r="M15" s="5">
         <v>1783</v>
       </c>
-      <c r="N15" s="18">
+      <c r="N15" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O15" s="18">
+      <c r="O15" s="5">
         <f t="shared" si="2"/>
         <v>3.6533000000000003E-2</v>
       </c>
-      <c r="P15" s="18">
+      <c r="P15" s="5">
         <f t="shared" si="0"/>
         <v>1.4581E-2</v>
       </c>
-      <c r="Q15" s="18">
+      <c r="Q15" s="5">
         <f t="shared" si="3"/>
         <v>4.0720000000000001E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="19">
+    <row r="16" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="6">
         <f>0.785398*180/PI()</f>
         <v>44.999990638015838</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="5">
         <v>0.80662999999999996</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="5">
         <v>0.82251300000000005</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="5">
         <v>0.98334500000000002</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="5">
         <v>0.78539800000000004</v>
       </c>
-      <c r="H16" s="18">
+      <c r="H16" s="5">
         <v>0.94247800000000004</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I16" s="5">
         <v>1.2456320000000001</v>
       </c>
-      <c r="J16" s="18">
+      <c r="J16" s="5">
         <v>119484</v>
       </c>
-      <c r="K16" s="18">
+      <c r="K16" s="5">
         <v>29489</v>
       </c>
-      <c r="L16" s="18">
+      <c r="L16" s="5">
         <v>2309</v>
       </c>
-      <c r="M16" s="18">
+      <c r="M16" s="5">
         <v>1795</v>
       </c>
-      <c r="N16" s="18">
+      <c r="N16" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O16" s="18">
+      <c r="O16" s="5">
         <f t="shared" si="2"/>
         <v>0.11948400000000001</v>
       </c>
-      <c r="P16" s="18">
+      <c r="P16" s="5">
         <f t="shared" si="0"/>
         <v>2.9489000000000001E-2</v>
       </c>
-      <c r="Q16" s="18">
+      <c r="Q16" s="5">
         <f t="shared" si="3"/>
         <v>4.104E-3</v>
       </c>
     </row>
-    <row r="17" spans="2:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="19">
+    <row r="17" spans="2:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="6">
         <f>1.0472*180/PI()</f>
         <v>60.000140306099802</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="5">
         <v>1.0878399999999999</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="3">
         <v>1.09941</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="5">
         <v>1.31254</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="5">
         <v>1.0471999999999999</v>
       </c>
-      <c r="H17" s="18">
+      <c r="H17" s="5">
         <v>1.3194699999999999</v>
       </c>
-      <c r="I17" s="18">
+      <c r="I17" s="5">
         <v>1.8612759999999999</v>
       </c>
-      <c r="J17" s="18">
+      <c r="J17" s="5">
         <v>111814</v>
       </c>
-      <c r="K17" s="18">
+      <c r="K17" s="5">
         <v>19193</v>
       </c>
-      <c r="L17" s="18">
+      <c r="L17" s="5">
         <v>2278</v>
       </c>
-      <c r="M17" s="18">
+      <c r="M17" s="5">
         <v>1791</v>
       </c>
-      <c r="N17" s="18">
+      <c r="N17" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O17" s="18">
+      <c r="O17" s="5">
         <f t="shared" si="2"/>
         <v>0.111814</v>
       </c>
-      <c r="P17" s="18">
+      <c r="P17" s="5">
         <f t="shared" si="0"/>
         <v>1.9193000000000002E-2</v>
       </c>
-      <c r="Q17" s="18">
+      <c r="Q17" s="5">
         <f t="shared" si="3"/>
         <v>4.0689999999999997E-3</v>
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="6">
-        <f t="shared" ref="C19:N19" si="4">AVERAGE(D4,D9,D10,D12,D15,D16,D17)</f>
+      <c r="B19" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="2">
+        <f t="shared" ref="D19:I19" si="4">AVERAGE(D4,D9,D10,D12,D15,D16,D17)</f>
         <v>1.3512384285714287</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="2">
         <f t="shared" si="4"/>
         <v>1.3383707142857144</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="2">
         <f t="shared" si="4"/>
         <v>1.008950142857143</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="2">
         <f t="shared" si="4"/>
         <v>0.60048485714285715</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="2">
         <f t="shared" si="4"/>
         <v>0.95262999999999998</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19" s="2">
         <f t="shared" si="4"/>
         <v>1.7369562334249262</v>
       </c>
-      <c r="O19" s="4">
+      <c r="O19" s="1">
         <f>AVERAGE(O4,O9,O10,O12,O15,O16,O17)</f>
         <v>9.1651999999999983E-2</v>
       </c>
-      <c r="P19" s="4">
+      <c r="P19" s="1">
         <f t="shared" ref="P19:Q19" si="5">AVERAGE(P4,P9,P10,P12,P15,P16,P17)</f>
         <v>3.4498714285714285E-2</v>
       </c>
-      <c r="Q19" s="4">
+      <c r="Q19" s="1">
         <f t="shared" si="5"/>
         <v>8.1025714285714295E-3</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B20" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="6">
+      <c r="B20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="2">
         <f>AVERAGE(D3:D17)</f>
         <v>2.2368092666666666</v>
       </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6">
+      <c r="E20" s="2"/>
+      <c r="F20" s="2">
         <f>AVERAGE(F3:F17)</f>
         <v>1.0180902000000001</v>
       </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="N20" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="O20" s="4">
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="N20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O20" s="1">
         <f>O19/$Q$19</f>
         <v>11.311470785288618</v>
       </c>
-      <c r="P20" s="4">
+      <c r="P20" s="1">
         <f>P19/$Q$19</f>
         <v>4.2577488627948794</v>
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6">
+      <c r="B21" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2">
         <f>AVERAGE(G3:G7)</f>
         <v>0.6796812000000001</v>
       </c>
-      <c r="H21" s="6">
-        <f t="shared" ref="E21:I21" si="6">AVERAGE(H3:H7)</f>
+      <c r="H21" s="2">
+        <f t="shared" ref="H21:I21" si="6">AVERAGE(H3:H7)</f>
         <v>0.63331500000000007</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21" s="2">
         <f t="shared" si="6"/>
         <v>1.3727684653589793</v>
       </c>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B22" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="21"/>
-      <c r="G22" s="6">
+      <c r="B22" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="G22" s="2">
         <f>AVERAGE(G8:G12)</f>
         <v>0.25</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="2">
         <f t="shared" ref="H22:I22" si="7">AVERAGE(H8:H12)</f>
         <v>0.187</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="2">
         <f t="shared" si="7"/>
         <v>0.44156079999999998</v>
       </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B23" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="21"/>
-      <c r="G23" s="6">
+      <c r="B23" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="G23" s="2">
         <f>AVERAGE(G13:G17)</f>
         <v>0.83775840000000001</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="2">
         <f t="shared" ref="H23:I23" si="8">AVERAGE(H13:H17)</f>
         <v>1.1058412</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23" s="2">
         <f t="shared" si="8"/>
         <v>3.6632333228718346</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="B19:C19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/real_robot_data_plots_and_demos/comparison_experiments/comparison_data_summary_spreadsheet_w_charts.xlsx
+++ b/real_robot_data_plots_and_demos/comparison_experiments/comparison_data_summary_spreadsheet_w_charts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janak\Documents\GitHub\closed_chain_affordance\real_robot_data_plots_and_demos\comparison_experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31482B63-DB11-46C8-AE16-56D58FFAC28A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31593C41-4BC0-4210-90E9-6FC85D031E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,39 +17,52 @@
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">data_summary!$G$1:$G$2</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">data_summary!$G$8:$G$12</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">data_summary!$I$1:$I$2</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">data_summary!$I$3:$I$7</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">data_summary!$G$13:$G$17</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">data_summary!$G$1:$G$2</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">data_summary!$H$13:$H$17</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">data_summary!$H$1:$H$2</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">data_summary!$I$13:$I$17</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">data_summary!$I$1:$I$2</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">data_summary!$D$1:$D$2</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">data_summary!$D$3:$D$17</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">data_summary!$H$1:$H$2</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">data_summary!$F$1:$F$2</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">data_summary!$F$3:$F$17</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">(data_summary!$O$4,data_summary!$O$9:$O$10,data_summary!$O$12,data_summary!$O$15:$O$17)</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">(data_summary!$P$4,data_summary!$P$9:$P$10,data_summary!$P$12,data_summary!$P$15:$P$17)</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">(data_summary!$Q$4,data_summary!$Q$9:$Q$10,data_summary!$Q$12,data_summary!$Q$15:$Q$17)</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">data_summary!$O$1:$O$2</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">data_summary!$P$1:$P$2</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">data_summary!$Q$1:$Q$2</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">(data_summary!$D$4,data_summary!$D$9:$D$10,data_summary!$D$12,data_summary!$D$15:$D$17)</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">(data_summary!$E$4,data_summary!$E$9:$E$10,data_summary!$E$12,data_summary!$E$15:$E$17)</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">data_summary!$H$8:$H$12</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">(data_summary!$F$4,data_summary!$F$9:$F$10,data_summary!$F$12,data_summary!$F$15:$F$17)</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">data_summary!$D$1:$D$2</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">data_summary!$E$1:$E$2</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">data_summary!$F$1:$F$2</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">data_summary!$I$1:$I$2</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">data_summary!$I$8:$I$12</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">data_summary!$G$1:$G$2</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">data_summary!$G$3:$G$7</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">data_summary!$H$1:$H$2</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">data_summary!$H$3:$H$7</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">data_summary!$G$2</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">data_summary!$H$1:$H$2</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">data_summary!$H$3:$H$7</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">data_summary!$I$1:$I$2</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">data_summary!$I$3:$I$7</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">data_summary!$G$13:$G$17</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">data_summary!$G$1:$G$2</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">data_summary!$G$2</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">data_summary!$H$13:$H$17</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">data_summary!$H$1:$H$2</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">data_summary!$I$13:$I$17</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">data_summary!$G$8:$G$12</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">data_summary!$I$1:$I$2</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">data_summary!$D$1:$D$2</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">data_summary!$D$2</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">data_summary!$D$3:$D$17</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">data_summary!$F$1:$F$2</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">data_summary!$F$3:$F$17</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">(data_summary!$O$4,data_summary!$O$9:$O$10,data_summary!$O$12,data_summary!$O$15:$O$17)</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">(data_summary!$P$4,data_summary!$P$9:$P$10,data_summary!$P$12,data_summary!$P$15:$P$17)</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">(data_summary!$Q$4,data_summary!$Q$9:$Q$10,data_summary!$Q$12,data_summary!$Q$15:$Q$17)</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">data_summary!$O$1:$O$2</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">data_summary!$H$1:$H$2</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">data_summary!$O$2</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">data_summary!$P$1:$P$2</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">data_summary!$Q$1:$Q$2</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">(data_summary!$D$4,data_summary!$D$9:$D$10,data_summary!$D$12,data_summary!$D$15:$D$17)</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">(data_summary!$E$4,data_summary!$E$9:$E$10,data_summary!$E$12,data_summary!$E$15:$E$17)</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">(data_summary!$F$4,data_summary!$F$9:$F$10,data_summary!$F$12,data_summary!$F$15:$F$17)</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">data_summary!$D$1:$D$2</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">data_summary!$D$2</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">data_summary!$D$2:$F$2</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">data_summary!$E$1:$E$2</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">data_summary!$H$8:$H$12</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">data_summary!$F$1:$F$2</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">(data_summary!$D$4,data_summary!$D$9:$D$10,data_summary!$D$12,data_summary!$D$15:$D$17)</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">(data_summary!$E$4,data_summary!$E$9:$E$10,data_summary!$E$12,data_summary!$E$15:$E$17)</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">(data_summary!$F$4,data_summary!$F$9:$F$10,data_summary!$F$12,data_summary!$F$15:$F$17)</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">data_summary!$D$1:$D$2</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">data_summary!$E$1:$E$2</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">data_summary!$F$1:$F$2</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">data_summary!$I$1:$I$2</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">data_summary!$I$8:$I$12</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">data_summary!$G$1:$G$2</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">data_summary!$G$2</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">data_summary!$G$3:$G$7</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -241,12 +254,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.19</cx:f>
+        <cx:f>_xlchart.v1.23</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.21</cx:f>
+        <cx:f>_xlchart.v1.25</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -287,8 +300,8 @@
         <cx:series layoutId="boxWhisker" uniqueId="{0382D671-78FD-499B-9B8E-2C80B1D2CC9E}" formatIdx="0">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.18</cx:f>
-              <cx:v>Joint Distance DSS</cx:v>
+              <cx:f>_xlchart.v1.22</cx:f>
+              <cx:v>DSS</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:spPr>
@@ -361,7 +374,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{21FE5B4C-0176-4646-877C-B1499D99DF0C}" formatIdx="1">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.20</cx:f>
+              <cx:f>_xlchart.v1.24</cx:f>
               <cx:v>CCA</cx:v>
             </cx:txData>
           </cx:tx>
@@ -532,6 +545,11 @@
       </cx:txPr>
     </cx:legend>
   </cx:chart>
+  <cx:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </cx:spPr>
 </cx:chartSpace>
 </file>
 
@@ -540,17 +558,17 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.11</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.11</cx:f>
+        <cx:f>_xlchart.v1.13</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -591,8 +609,8 @@
         <cx:series layoutId="boxWhisker" uniqueId="{EC1BFEB9-51E1-47A8-BE3D-4EFFC9C8B70A}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
-              <cx:v>Max Affordance DSS</cx:v>
+              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:v>DSS</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:spPr>
@@ -681,7 +699,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{6D08D468-86D3-41E8-9BEC-278660B9132B}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:f>_xlchart.v1.10</cx:f>
               <cx:v>SPS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -705,7 +723,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{327D4D88-173A-4F3A-8AD4-8854575B46C1}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.10</cx:f>
+              <cx:f>_xlchart.v1.12</cx:f>
               <cx:v>CCA</cx:v>
             </cx:txData>
           </cx:tx>
@@ -831,6 +849,11 @@
       </cx:txPr>
     </cx:legend>
   </cx:chart>
+  <cx:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </cx:spPr>
 </cx:chartSpace>
 </file>
 
@@ -839,17 +862,17 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -890,8 +913,8 @@
         <cx:series layoutId="boxWhisker" uniqueId="{B19A63EC-BAB7-4A72-B18D-571D74514894}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
-              <cx:v>Max Affordance DSS</cx:v>
+              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:v>DSS</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:spPr>
@@ -962,7 +985,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{B712CB83-935D-41BD-A894-992E04E28509}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.3</cx:f>
               <cx:v>SPS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1035,7 +1058,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{0DD982F6-513D-43A8-A1E7-2BDA03100B84}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:f>_xlchart.v1.5</cx:f>
               <cx:v>CCA</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1209,6 +1232,11 @@
       </cx:txPr>
     </cx:legend>
   </cx:chart>
+  <cx:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </cx:spPr>
 </cx:chartSpace>
 </file>
 
@@ -1217,17 +1245,17 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.12</cx:f>
+        <cx:f>_xlchart.v1.14</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.14</cx:f>
+        <cx:f>_xlchart.v1.17</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.16</cx:f>
+        <cx:f>_xlchart.v1.19</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1268,8 +1296,8 @@
         <cx:series layoutId="boxWhisker" uniqueId="{97FBFBD7-1F03-445F-A4D8-F2680E21D10A}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.13</cx:f>
-              <cx:v>Max Affordance DSS</cx:v>
+              <cx:f>_xlchart.v1.16</cx:f>
+              <cx:v>DSS</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:spPr>
@@ -1355,7 +1383,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{6067C55C-6B6F-4F4C-9BA9-5BAA6BBFAACF}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.15</cx:f>
+              <cx:f>_xlchart.v1.18</cx:f>
               <cx:v>SPS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1428,7 +1456,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C75F04B9-C3D8-46D8-B136-BE996120F14C}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.17</cx:f>
+              <cx:f>_xlchart.v1.20</cx:f>
               <cx:v>CCA</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1618,6 +1646,11 @@
       </cx:txPr>
     </cx:legend>
   </cx:chart>
+  <cx:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </cx:spPr>
 </cx:chartSpace>
 </file>
 
@@ -1626,17 +1659,17 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.22</cx:f>
+        <cx:f>_xlchart.v1.26</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.23</cx:f>
+        <cx:f>_xlchart.v1.27</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.24</cx:f>
+        <cx:f>_xlchart.v1.28</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1677,8 +1710,8 @@
         <cx:series layoutId="boxWhisker" uniqueId="{D8E0D4C5-9E37-468F-AE6B-783E640DA5DB}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.25</cx:f>
-              <cx:v>Planning Time(s) DSS</cx:v>
+              <cx:f>_xlchart.v1.30</cx:f>
+              <cx:v>DSS</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:spPr>
@@ -1759,7 +1792,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{9F016F99-8005-491B-AC8B-77E8067B3D4D}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.26</cx:f>
+              <cx:f>_xlchart.v1.31</cx:f>
               <cx:v>SPS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1838,7 +1871,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C152E4A2-BA39-4218-B43E-D0DC6449AC31}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.27</cx:f>
+              <cx:f>_xlchart.v1.32</cx:f>
               <cx:v>CCA</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2031,6 +2064,11 @@
       </cx:txPr>
     </cx:legend>
   </cx:chart>
+  <cx:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </cx:spPr>
 </cx:chartSpace>
 </file>
 
@@ -2039,17 +2077,17 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.28</cx:f>
+        <cx:f>_xlchart.v1.33</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.29</cx:f>
+        <cx:f>_xlchart.v1.34</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.30</cx:f>
+        <cx:f>_xlchart.v1.35</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2090,8 +2128,8 @@
         <cx:series layoutId="boxWhisker" uniqueId="{D6AC1890-DB70-42A1-A652-CF422DBA3013}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.31</cx:f>
-              <cx:v>Joint Distance DSS</cx:v>
+              <cx:f>_xlchart.v1.37</cx:f>
+              <cx:v>DSS</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:spPr>
@@ -2178,7 +2216,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{3CA3C64A-B5BF-4FB8-AD0B-6D0879431690}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.32</cx:f>
+              <cx:f>_xlchart.v1.39</cx:f>
               <cx:v>SPS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2269,7 +2307,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{E14A7B52-1B85-4DE5-9C17-19C6D97E0B00}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.33</cx:f>
+              <cx:f>_xlchart.v1.40</cx:f>
               <cx:v>CCA</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2427,18 +2465,27 @@
           <a:pPr algn="ctr" rtl="0">
             <a:defRPr sz="1200" b="1" i="0">
               <a:solidFill>
-                <a:srgbClr val="595959"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr sz="1200" b="1"/>
+          <a:endParaRPr sz="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </cx:txPr>
     </cx:legend>
   </cx:chart>
+  <cx:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </cx:spPr>
 </cx:chartSpace>
 </file>
 
@@ -5938,13 +5985,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>545647</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>121103</xdr:rowOff>
+      <xdr:rowOff>87971</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>232683</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>6803</xdr:rowOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>164171</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -5983,8 +6030,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6317797" y="7550603"/>
-              <a:ext cx="5030561" cy="2743200"/>
+              <a:off x="6318625" y="7517471"/>
+              <a:ext cx="5037601" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -6019,13 +6066,13 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>277956</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>101311</xdr:rowOff>
+      <xdr:rowOff>93028</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>132484</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>177511</xdr:rowOff>
+      <xdr:rowOff>169228</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -6064,8 +6111,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="11393631" y="7530811"/>
-              <a:ext cx="4559878" cy="2743200"/>
+              <a:off x="11401499" y="7522528"/>
+              <a:ext cx="4583898" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -6909,8 +6956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26412DA8-AF8B-424F-9A42-3270986B77E9}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N57" sqref="N57"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R59" sqref="R59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/real_robot_data_plots_and_demos/comparison_experiments/comparison_data_summary_spreadsheet_w_charts.xlsx
+++ b/real_robot_data_plots_and_demos/comparison_experiments/comparison_data_summary_spreadsheet_w_charts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janak\Documents\GitHub\closed_chain_affordance\real_robot_data_plots_and_demos\comparison_experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31593C41-4BC0-4210-90E9-6FC85D031E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9822E8-CBE3-4297-854C-794F5EF8B50E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,12 +52,13 @@
     <definedName name="_xlchart.v1.39" hidden="1">data_summary!$E$1:$E$2</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">data_summary!$H$8:$H$12</definedName>
     <definedName name="_xlchart.v1.40" hidden="1">data_summary!$F$1:$F$2</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">(data_summary!$D$4,data_summary!$D$9:$D$10,data_summary!$D$12,data_summary!$D$15:$D$17)</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">(data_summary!$E$4,data_summary!$E$9:$E$10,data_summary!$E$12,data_summary!$E$15:$E$17)</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">(data_summary!$F$4,data_summary!$F$9:$F$10,data_summary!$F$12,data_summary!$F$15:$F$17)</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">data_summary!$D$1:$D$2</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">data_summary!$E$1:$E$2</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">data_summary!$F$1:$F$2</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">data_summary!$G$1:$G$2</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">data_summary!$G$2</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">data_summary!$G$8:$G$12</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">data_summary!$H$1:$H$2</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">data_summary!$H$8:$H$12</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">data_summary!$I$1:$I$2</definedName>
+    <definedName name="_xlchart.v1.47" hidden="1">data_summary!$I$8:$I$12</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">data_summary!$I$1:$I$2</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">data_summary!$I$8:$I$12</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">data_summary!$G$1:$G$2</definedName>
@@ -879,34 +880,51 @@
   <cx:chart>
     <cx:title pos="t" align="ctr" overlay="0">
       <cx:tx>
-        <cx:txData>
-          <cx:v>Dufflebag Unzipping Experiment Max Achievable Task Goals</cx:v>
-        </cx:txData>
+        <cx:rich>
+          <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1400" b="1" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Dufflebag Unzipping Experiment Max Achievable Task </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1400" b="1" i="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="1">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Goals</a:t>
+            </a:r>
+          </a:p>
+        </cx:rich>
       </cx:tx>
-      <cx:txPr>
-        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1400" b="1" i="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="1">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Dufflebag Unzipping Experiment Max Achievable Task Goals</a:t>
-          </a:r>
-        </a:p>
-      </cx:txPr>
     </cx:title>
     <cx:plotArea>
       <cx:plotAreaRegion>
@@ -929,6 +947,8 @@
             </a:ln>
           </cx:spPr>
           <cx:dataLabels>
+            <cx:visibility seriesName="0" categoryName="0" value="0"/>
+            <cx:separator>, </cx:separator>
             <cx:dataLabel idx="0">
               <cx:visibility seriesName="0" categoryName="0" value="0"/>
               <cx:separator>, </cx:separator>
@@ -961,18 +981,15 @@
                       </a:solidFill>
                     </a:defRPr>
                   </a:pPr>
-                  <a:r>
-                    <a:rPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-                    </a:rPr>
-                    <a:t>0.25</a:t>
-                  </a:r>
+                  <a:endParaRPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                  </a:endParaRPr>
                 </a:p>
               </cx:txPr>
-              <cx:visibility seriesName="0" categoryName="0" value="1"/>
+              <cx:visibility seriesName="0" categoryName="0" value="0"/>
               <cx:separator>, </cx:separator>
             </cx:dataLabel>
           </cx:dataLabels>
@@ -6654,6 +6671,76 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>448181</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>74346</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>199882</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>116321</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="TextBox 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8784D760-A7F3-4145-8039-45F3D8B8BFC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8283529" y="9218346"/>
+          <a:ext cx="704201" cy="232475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>0.25</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6956,8 +7043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26412DA8-AF8B-424F-9A42-3270986B77E9}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R59" sqref="R59"/>
+    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N59" sqref="N59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
